--- a/hiqu/Performance Evaluation/September 2024/Dev/Fawad Ahmad.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Fawad Ahmad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E8B361-A0D1-4F28-84E0-610D47E9CEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2486E4-E5A8-4A90-B787-44EE4446E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>Employee Name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Post-Prod</t>
   </si>
   <si>
-    <t>Complexity</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Diff %</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Smoke</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -279,18 +270,9 @@
     <t>Period: September 2024</t>
   </si>
   <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>AP Workflow</t>
-  </si>
-  <si>
     <t>Nexelus 2024.2</t>
   </si>
   <si>
-    <t>Penetration Testing</t>
-  </si>
-  <si>
     <t>Fawad Ahmad</t>
   </si>
   <si>
@@ -304,16 +286,47 @@
   </si>
   <si>
     <t>2024-25</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Ability to assign Employees to Roles by Media type and by Client</t>
+  </si>
+  <si>
+    <t>Regular bug fixing activity</t>
+  </si>
+  <si>
+    <t>Project Overhead</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Mgmt</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Deployments</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +406,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -410,12 +429,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,8 +462,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -500,15 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -583,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -591,8 +601,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,98 +617,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -708,13 +711,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -732,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,8 +744,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8180B592-B2B1-4676-AFAD-227D0E36D85D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6FF6618-242E-45B7-94CB-EA40EC999215}"/>
@@ -1086,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,30 +1111,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="45"/>
+      <c r="B2" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="41"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1129,11 +1142,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1141,11 +1154,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1153,11 +1166,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1165,316 +1178,318 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="51">
+        <v>62</v>
+      </c>
+      <c r="C10" s="47">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.11506849315068493</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="C11" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="B13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="32" t="s">
-        <v>45</v>
+      <c r="B15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
-        <v>39</v>
+      <c r="B16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>7</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="43"/>
+      <c r="J16" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>40</v>
+      <c r="B17" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="E17" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="1">
         <v>6</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="43"/>
+      <c r="J17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>41</v>
+      <c r="B18" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="E18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="1">
         <v>7</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="43"/>
+      <c r="J18" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>42</v>
+      <c r="B19" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="E19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="1">
         <v>8</v>
       </c>
-      <c r="J19" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="43"/>
+      <c r="J19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>43</v>
+      <c r="B20" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="E20" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="1">
         <v>7</v>
       </c>
-      <c r="J20" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="43"/>
+      <c r="J20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>44</v>
+      <c r="B21" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="E21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="43"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>8</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="32"/>
+      <c r="J22" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="42"/>
-      <c r="J22" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="43"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="C23" s="1">
         <v>7</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="43"/>
+      <c r="J23" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
+      <c r="B25" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="G27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="H27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="I27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="J27" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="K27" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="L27" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="M27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="N27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="B28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="62"/>
       <c r="D28" s="1">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1486,14 +1501,16 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="B29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="62"/>
       <c r="D29" s="1">
         <v>18</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1505,14 +1522,16 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2"/>
+      <c r="B30" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="62"/>
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1524,14 +1543,16 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="B31" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="62"/>
       <c r="D31" s="1">
         <v>16</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>12</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1543,14 +1564,16 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="B32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="62"/>
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1562,14 +1585,16 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2"/>
+      <c r="B33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="62"/>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1581,14 +1606,16 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="B34" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="62"/>
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1600,14 +1627,16 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="B35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="62"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1655,584 +1684,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:S22"/>
+  <dimension ref="B2:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="6"/>
-    <col min="6" max="6" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="2.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="6" customWidth="1"/>
-    <col min="16" max="18" width="9.28515625" style="6"/>
-    <col min="19" max="19" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="6"/>
+    <col min="11" max="11" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="6" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="6"/>
+    <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-    </row>
-    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="63" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="N6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="R6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="58"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="I6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="M6" s="15" t="s">
+      <c r="R7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="62"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
-        <v>81</v>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="8"/>
+      <c r="R8" s="37"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="17">
-        <f t="shared" ref="G9" si="0">IF(E9=0,0,(F9-E9)/E9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>16</v>
-      </c>
-      <c r="K9" s="17">
-        <f>(J9-I9)/IF(I9=0,J9,I9)</f>
+      <c r="C9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>106</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" ref="L9" si="0">IF(J9=0,0,(K9-J9)/J9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" ref="P9" si="1">IF(N9=0,0,(O9-N9)/N9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="38">
+        <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
+        <v>106</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <f>SUM(U9:W9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>44</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="2">IF(J11=0,0,(K11-J11)/J11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" ref="P11" si="3">IF(N11=0,0,(O11-N11)/N11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="38">
+        <f>D11+E11+F11+G11+H11+I11+K11+O11</f>
+        <v>44</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="17">
-        <f>IF((E9+I9)=0,1,((F9+J9)-(E9+I9))/(E9+I9))</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <f>SUM(P9:R9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="17"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="17"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="18"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="19"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="21">
-        <f>SUM(E9:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <f>SUM(F9:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <f>IF(E13=0,0,(F13-E13)/E13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21">
-        <f>SUM(I9:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <f>SUM(J9:J12)</f>
-        <v>16</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" ref="K13" si="1">IF(I13=0,0,(J13-I13)/I13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22">
-        <f t="shared" ref="M13:M19" si="2">IF((E13+I13)=0,1,((F13+J13)-(E13+I13))/(E13+I13))</f>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20">
+        <f>SUM(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" ref="E13:O13" si="4">SUM(E8:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" ref="P13" si="5">IF(N13=0,0,(O13-N13)/N13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="39">
+        <f t="shared" ref="R13" si="6">SUM(R8:R12)</f>
+        <v>150</v>
+      </c>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20">
+        <f t="shared" ref="U13:X13" si="7">SUM(U8:U12)</f>
         <v>1</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="21">
-        <f>SUM(P9:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21">
-        <f>SUM(Q9:Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <f>SUM(R9:R12)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <f>SUM(P13:R13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44</v>
-      </c>
-      <c r="G15" s="17">
-        <f t="shared" ref="G15" si="3">IF(E15=0,0,(F15-E15)/E15)</f>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>8</v>
-      </c>
-      <c r="J15" s="2">
-        <v>8</v>
-      </c>
-      <c r="K15" s="17">
-        <f>(J15-I15)/IF(I15=0,J15,I15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="17">
-        <f>IF((E15+I15)=0,1,((F15+J15)-(E15+I15))/(E15+I15))</f>
-        <v>-0.23529411764705882</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26">
-        <f>SUM(E14:E18)</f>
-        <v>60</v>
-      </c>
-      <c r="F19" s="26">
-        <f>SUM(F14:F18)</f>
-        <v>44</v>
-      </c>
-      <c r="G19" s="27">
-        <f t="shared" ref="G19:G21" si="4">IF(E19=0,0,(F19-E19)/E19)</f>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26">
-        <f>SUM(I14:I18)</f>
-        <v>8</v>
-      </c>
-      <c r="J19" s="26">
-        <f>SUM(J14:J18)</f>
-        <v>8</v>
-      </c>
-      <c r="K19" s="27">
-        <f t="shared" ref="K19:K21" si="5">IF(I19=0,0,(J19-I19)/I19)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27">
-        <f t="shared" si="2"/>
-        <v>-0.23529411764705882</v>
-      </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="26">
-        <f>SUM(P14:P18)</f>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="26">
-        <f>SUM(Q14:Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="26">
-        <f>SUM(R14:R18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="26">
-        <f>SUM(P19:R19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
-        <f>SUM(E19,E13)</f>
-        <v>60</v>
-      </c>
-      <c r="F21" s="29">
-        <f>SUM(F19,F13)</f>
-        <v>44</v>
-      </c>
-      <c r="G21" s="30">
-        <f t="shared" si="4"/>
-        <v>-0.26666666666666666</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29">
-        <f>SUM(I19,I13)</f>
-        <v>8</v>
-      </c>
-      <c r="J21" s="29">
-        <f>SUM(J19,J13)</f>
-        <v>24</v>
-      </c>
-      <c r="K21" s="30">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29">
-        <f>SUM(P19,P13)</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="29">
-        <f>SUM(Q19,Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="29">
-        <f>SUM(R19,R13)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="29">
-        <f>SUM(S19,S13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="V13" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="P9">
+  <conditionalFormatting sqref="U9">
     <cfRule type="expression" priority="3">
-      <formula>P9/$S9</formula>
+      <formula>U9/$X9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Fawad Ahmad.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Fawad Ahmad.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2486E4-E5A8-4A90-B787-44EE4446E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D163B6D-DAA1-4512-8B13-790E29449217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="Project Portfolio" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="September 2024" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>Employee Name</t>
   </si>
@@ -316,6 +317,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -326,7 +339,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,11 +422,18 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +617,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,17 +677,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -692,38 +701,33 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -750,7 +754,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1097,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,565 +1118,337 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="41"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="C2" s="43"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="45">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.16712328767123288</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="1">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="1">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
         <v>7</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="1">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="1">
-        <v>6</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="E24" s="2">
         <v>7</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="1">
-        <v>7</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="1">
-        <v>8</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="33"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="1">
-        <v>7</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="1">
-        <v>7</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="33"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="32"/>
-      <c r="J22" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="33"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="1"/>
-      <c r="J23" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="1">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="1">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+  <mergeCells count="10">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1676,6 +1456,7 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B14:N14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,17 +1464,605 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B079F4B-5067-4737-8530-43E9A567B062}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C30:C37">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E0646212-DEFE-4F42-89BC-0A29A32B5665}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A19B4C56-DD82-4020-AB78-A1EA9ED5C25B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EDC25928-7935-4D5D-AEDA-5B5846D585CF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4883859-0A5A-4AB2-B3E1-9ECAC2BDC385}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{141D0501-A03A-47AC-9343-14C3933BA530}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63CF2CBC-2048-4E24-984D-E2CAF9BA85E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8919A3A2-B15B-44BB-8ED3-180905CF695C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{526690AA-05EC-4589-88C5-5C19BE1BE306}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19DB8008-65CE-4C85-832B-8674645FD59C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0646212-DEFE-4F42-89BC-0A29A32B5665}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A19B4C56-DD82-4020-AB78-A1EA9ED5C25B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EDC25928-7935-4D5D-AEDA-5B5846D585CF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D18:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4883859-0A5A-4AB2-B3E1-9ECAC2BDC385}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{141D0501-A03A-47AC-9343-14C3933BA530}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63CF2CBC-2048-4E24-984D-E2CAF9BA85E6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8919A3A2-B15B-44BB-8ED3-180905CF695C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{526690AA-05EC-4589-88C5-5C19BE1BE306}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19DB8008-65CE-4C85-832B-8674645FD59C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1715,85 +2084,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -1802,56 +2171,56 @@
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="60" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="N6" s="59" t="s">
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="N6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="R6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="58"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="52"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +2259,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="1"/>
@@ -1906,7 +2275,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="8"/>
-      <c r="R8" s="37"/>
+      <c r="R8" s="34"/>
       <c r="T8" s="8"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1915,22 +2284,24 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>50</v>
+      </c>
       <c r="K9" s="2">
         <v>106</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="58">
         <f t="shared" ref="L9" si="0">IF(J9=0,0,(K9-J9)/J9)</f>
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1943,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="38">
+      <c r="R9" s="35">
         <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
         <v>106</v>
       </c>
@@ -1967,10 +2338,10 @@
         <v>77</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="2"/>
@@ -1981,7 +2352,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="38"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="2"/>
       <c r="T10" s="8"/>
       <c r="U10" s="2"/>
@@ -1991,19 +2362,17 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>44</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="16">
         <f t="shared" ref="L11" si="2">IF(J11=0,0,(K11-J11)/J11)</f>
         <v>0</v>
@@ -2013,14 +2382,14 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P11" s="16">
         <f t="shared" ref="P11" si="3">IF(N11=0,0,(O11-N11)/N11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="38">
+      <c r="R11" s="35">
         <f>D11+E11+F11+G11+H11+I11+K11+O11</f>
         <v>44</v>
       </c>
@@ -2036,10 +2405,10 @@
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="2"/>
@@ -2050,7 +2419,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="R12" s="34"/>
       <c r="S12" s="2"/>
       <c r="T12" s="8"/>
       <c r="U12" s="2"/>
@@ -2089,15 +2458,15 @@
       </c>
       <c r="J13" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="20">
@@ -2106,14 +2475,14 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P13" s="21">
         <f t="shared" ref="P13" si="5">IF(N13=0,0,(O13-N13)/N13)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="20"/>
-      <c r="R13" s="39">
+      <c r="R13" s="36">
         <f t="shared" ref="R13" si="6">SUM(R8:R12)</f>
         <v>150</v>
       </c>
